--- a/테이블/전투/공격/종족 공격 스트링 테이블.xlsx
+++ b/테이블/전투/공격/종족 공격 스트링 테이블.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\공격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15209761-031C-4D44-83DA-58C4683671B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AFDFD-8D4E-4E6B-BD7F-B48C5368FB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,23 +669,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>기술 공격 Id</v>
@@ -709,10 +709,6 @@
       <c r="G1" t="str" cm="1">
         <f t="array" aca="1" ref="G1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>획득 정보</v>
-      </c>
-      <c r="H1" t="str" cm="1">
-        <f t="array" aca="1" ref="H1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
       </c>
     </row>
   </sheetData>
